--- a/medicine/Mort/Mont_des_Répits/Mont_des_Répits.xlsx
+++ b/medicine/Mort/Mont_des_Répits/Mont_des_Répits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mont_des_R%C3%A9pits</t>
+          <t>Mont_des_Répits</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Har Hamenouhot (en hébreu : הר המנוחות) est un cimetière juif de Jérusalem, également connu sous le nom de cimetière de Givat Shaul. Il est fondé en 1951, trois ans après la création de l'État d'Israël. Il est connu pour les nombreuses personnalités juives, israéliennes ou de la diaspora juive qui y ont été enterrées et notamment un grand nombre de rabbins importants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mont_des_R%C3%A9pits</t>
+          <t>Mont_des_Répits</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Personnalités enterrées dans le cimetière Har Hamenouhot</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gershon Agron
